--- a/Common Documents/Test Cases/Transaction Test Cases.xlsx
+++ b/Common Documents/Test Cases/Transaction Test Cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishr\OneDrive\Documents\GitHub\PecuniaFinance\Common Documents\Test Cases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5D93D-06F3-4A1C-ADE9-8A03DF3992A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -212,12 +218,15 @@
   <si>
     <t>Error message: Cheque no. must be of 6 digits only</t>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,13 +487,21 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal 3" xfId="3"/>
+    <cellStyle name="Excel Built-in Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -531,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,9 +580,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,6 +632,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -772,16 +825,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="66">
+    <row r="1" spans="1:9" ht="65" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -810,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="132">
+    <row r="2" spans="1:9" ht="125.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
@@ -835,7 +888,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="92.4">
+    <row r="3" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -852,13 +905,15 @@
       <c r="F3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="66">
+    <row r="4" spans="1:9" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -875,13 +930,15 @@
       <c r="F4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="132">
+    <row r="5" spans="1:9" ht="125" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -898,13 +955,15 @@
       <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="118.8">
+    <row r="6" spans="1:9" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -921,13 +980,15 @@
       <c r="F6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="28"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -938,7 +999,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="132">
+    <row r="8" spans="1:9" ht="125" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
@@ -957,13 +1018,15 @@
       <c r="F8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="92.4">
+    <row r="9" spans="1:9" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -982,13 +1045,15 @@
       <c r="F9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="145.19999999999999">
+    <row r="10" spans="1:9" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1007,13 +1072,15 @@
       <c r="F10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="92.4">
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
@@ -1032,13 +1099,15 @@
       <c r="F11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
@@ -1048,7 +1117,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
@@ -1058,7 +1127,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
@@ -1068,7 +1137,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
@@ -1078,7 +1147,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
@@ -1088,7 +1157,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
@@ -1098,7 +1167,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8"/>
@@ -1110,8 +1179,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" display="123@#WER"/>
-    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId1" display="123@#WER" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1119,24 +1188,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
